--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -1,27 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE9A67DE-212A-4D3A-81D0-EA05C2A1D2E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B2194-9B86-4189-979D-C0E775FFE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
+    <sheet name="JsonField" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -235,10 +236,6 @@
   <si>
     <t>CustNo ASC,OldFacmNo ASC,OldBormNo ASC,NewFacmNo ASC,NewBormNo ASC,AcDate ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y.新撥款找舊撥款時，取舊撥款第一筆為Y</t>
-    <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
     <t>DECIMALD</t>
@@ -256,12 +253,40 @@
 </t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>SELECT  JSON_VALUE  ("OtherFields",  '$.CaseCloseCode') AS CaseCloseCode</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>DECIMAL</t>
+  </si>
+  <si>
+    <t>OtherFields</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>協議件編號</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>NegNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y.新撥款找舊撥款時，取舊撥款第一筆為Y
+新對舊為一對多時第一筆為Y,其餘為N</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -354,6 +379,13 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -444,7 +476,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -541,6 +573,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -552,6 +590,9 @@
     </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -896,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -912,10 +953,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="33"/>
+      <c r="B1" s="35"/>
       <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
@@ -927,8 +968,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="32"/>
-      <c r="B2" s="33"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="35"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -940,10 +981,10 @@
       <c r="G2" s="12"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="37"/>
       <c r="C3" s="13" t="s">
         <v>42</v>
       </c>
@@ -955,10 +996,10 @@
       <c r="G3" s="12"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="32" t="s">
+      <c r="A4" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="34"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="13"/>
       <c r="D4" s="14"/>
       <c r="E4" s="11"/>
@@ -966,10 +1007,10 @@
       <c r="G4" s="12"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="13" t="s">
         <v>49</v>
       </c>
@@ -979,10 +1020,10 @@
       <c r="G5" s="12"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="35"/>
       <c r="C6" s="13"/>
       <c r="D6" s="14"/>
       <c r="E6" s="11"/>
@@ -990,10 +1031,10 @@
       <c r="G6" s="12"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="32" t="s">
+      <c r="A7" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="34"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="4"/>
       <c r="D7" s="14"/>
       <c r="E7" s="11"/>
@@ -1126,7 +1167,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D14" s="29" t="s">
         <v>12</v>
@@ -1136,10 +1177,10 @@
       </c>
       <c r="F14" s="27"/>
       <c r="G14" s="22" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" s="25" customFormat="1" ht="32.4">
       <c r="A15" s="26">
         <v>7</v>
       </c>
@@ -1157,7 +1198,7 @@
       </c>
       <c r="F15" s="27"/>
       <c r="G15" s="22" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
@@ -1171,7 +1212,7 @@
         <v>53</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E16" s="30">
         <v>8</v>
@@ -1252,6 +1293,22 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="1:7">
+      <c r="A21" s="26">
+        <v>13</v>
+      </c>
+      <c r="B21" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="E21" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>
   </sheetData>
@@ -1331,4 +1388,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9063CA1B-0CE5-4ED2-9129-CE1CA984F171}">
+  <dimension ref="A1:J2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="16.2"/>
+  <cols>
+    <col min="1" max="1" width="2.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="2.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="32">
+        <v>8</v>
+      </c>
+      <c r="F2" s="32"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:J1"/>
+  </mergeCells>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32B2194-9B86-4189-979D-C0E775FFE118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17869DB2-0F11-49FC-B447-C719F4691DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -937,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1224,71 +1224,73 @@
       <c r="A17" s="26">
         <v>9</v>
       </c>
-      <c r="B17" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="19" t="s">
-        <v>17</v>
+      <c r="B17" s="23" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>62</v>
       </c>
       <c r="D17" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="30">
-        <v>6</v>
-      </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="22"/>
+      <c r="E17" s="31">
+        <v>2000</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="26">
         <v>10</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>18</v>
+      <c r="B18" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>17</v>
       </c>
       <c r="D18" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E18" s="31"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="20"/>
+        <v>50</v>
+      </c>
+      <c r="E18" s="30">
+        <v>6</v>
+      </c>
+      <c r="F18" s="19"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="26">
         <v>11</v>
       </c>
       <c r="B19" s="23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E19" s="31">
-        <v>6</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E19" s="31"/>
       <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="26">
         <v>12</v>
       </c>
       <c r="B20" s="23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C20" s="23" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D20" s="27" t="s">
-        <v>51</v>
-      </c>
-      <c r="E20" s="31"/>
+        <v>50</v>
+      </c>
+      <c r="E20" s="31">
+        <v>6</v>
+      </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
     </row>
@@ -1297,17 +1299,15 @@
         <v>13</v>
       </c>
       <c r="B21" s="23" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="C21" s="23" t="s">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="D21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="E21" s="31">
-        <v>2000</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="E21" s="31"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
     </row>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17869DB2-0F11-49FC-B447-C719F4691DF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9F854-9A1B-411A-BD88-2D8AD081F8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="69">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -280,6 +280,18 @@
     <t>Y.新撥款找舊撥款時，取舊撥款第一筆為Y
 新對舊為一對多時第一筆為Y,其餘為N</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo ASC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>custNoEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -937,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1333,7 +1345,7 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -1375,6 +1387,17 @@
       </c>
       <c r="C3" s="1" t="s">
         <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2D9F854-9A1B-411A-BD88-2D8AD081F8D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8759B-C7DF-4CB8-BB84-ADBF0F6B5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -286,11 +286,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>CustNo ASC</t>
+    <t>custNoEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>custNoEq</t>
+    <t>CustNo ASC,OldFacmNo ASC,OldBormNo ASC,NewFacmNo ASC,NewBormNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -949,7 +949,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -1343,7 +1343,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1391,13 +1391,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B8759B-C7DF-4CB8-BB84-ADBF0F6B5796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D980D-09DA-4395-957F-F68AD7D02809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -246,14 +246,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">代碼檔: 02-業務作業
-RenewCode展期記號
-1:一般
-2:協議
-</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>SELECT  JSON_VALUE  ("OtherFields",  '$.CaseCloseCode') AS CaseCloseCode</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -292,13 +284,18 @@
   <si>
     <t>CustNo ASC,OldFacmNo ASC,OldBormNo ASC,NewFacmNo ASC,NewBormNo ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.展期件
+2.借新還舊件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,6 +395,13 @@
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="新細明體"/>
+      <family val="1"/>
+      <charset val="136"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -488,7 +492,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -507,10 +511,10 @@
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -523,9 +527,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -537,9 +538,6 @@
     <xf numFmtId="49" fontId="11" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -549,28 +547,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,7 +568,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -605,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -949,26 +938,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="5.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.77734375" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="6.21875" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="44.6640625" style="17" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.77734375" style="18" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.21875" style="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="44.6640625" style="15" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="35"/>
+      <c r="B1" s="29"/>
       <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
@@ -980,80 +969,80 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="29"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="11"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="13" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="34" t="s">
+      <c r="A4" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="37" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="13" t="s">
+      <c r="B5" s="31"/>
+      <c r="C5" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="34" t="s">
+      <c r="A6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="30"/>
       <c r="C7" s="4"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-    </row>
-    <row r="8" spans="1:7" s="16" customFormat="1">
+      <c r="D7" s="13"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
         <v>0</v>
       </c>
@@ -1072,256 +1061,256 @@
       <c r="F8" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="14" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="17">
+      <c r="A9" s="15">
         <v>1</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="30">
+      <c r="E9" s="24">
         <v>7</v>
       </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="20"/>
-    </row>
-    <row r="10" spans="1:7" s="25" customFormat="1">
-      <c r="A10" s="26">
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="15">
         <v>2</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="17" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="27" t="s">
+      <c r="C10" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="30">
+      <c r="E10" s="24">
         <v>3</v>
       </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="20"/>
-    </row>
-    <row r="11" spans="1:7" s="25" customFormat="1">
-      <c r="A11" s="26">
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="15">
         <v>3</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="27" t="s">
+      <c r="C11" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="24">
         <v>3</v>
       </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="20"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="26">
+      <c r="A12" s="15">
         <v>4</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="19" t="s">
+      <c r="C12" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="24">
         <v>3</v>
       </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="20"/>
-    </row>
-    <row r="13" spans="1:7" s="25" customFormat="1">
-      <c r="A13" s="26">
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="15">
         <v>5</v>
       </c>
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="17" t="s">
         <v>36</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="24">
         <v>3</v>
       </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="20"/>
-    </row>
-    <row r="14" spans="1:7" s="25" customFormat="1" ht="67.8" customHeight="1">
-      <c r="A14" s="26">
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="32.4">
+      <c r="A14" s="15">
         <v>6</v>
       </c>
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="D14" s="29" t="s">
+      <c r="D14" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="24">
         <v>1</v>
       </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="22" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="25" customFormat="1" ht="32.4">
-      <c r="A15" s="26">
+      <c r="F14" s="17"/>
+      <c r="G14" s="33" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="32.4">
+      <c r="A15" s="15">
         <v>7</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="29" t="s">
+      <c r="D15" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="30">
+      <c r="E15" s="24">
         <v>1</v>
       </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="22" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="25" customFormat="1" ht="18" customHeight="1">
-      <c r="A16" s="26">
+      <c r="F15" s="17"/>
+      <c r="G15" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="18" customHeight="1">
+      <c r="A16" s="15">
         <v>8</v>
       </c>
-      <c r="B16" s="27" t="s">
+      <c r="B16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="D16" s="29" t="s">
+      <c r="D16" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="E16" s="30">
+      <c r="E16" s="24">
         <v>8</v>
       </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="22"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="19"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="26">
+      <c r="A17" s="15">
         <v>9</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="C17" s="23" t="s">
-        <v>62</v>
-      </c>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="31">
+      <c r="E17" s="25">
         <v>2000</v>
       </c>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="21"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="26">
+      <c r="A18" s="15">
         <v>10</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="19" t="s">
+      <c r="C18" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E18" s="30">
+      <c r="E18" s="24">
         <v>6</v>
       </c>
-      <c r="F18" s="19"/>
-      <c r="G18" s="22"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="19"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="26">
+      <c r="A19" s="15">
         <v>11</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="27" t="s">
+      <c r="D19" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E19" s="31"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="20"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="26">
+      <c r="A20" s="15">
         <v>12</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="31">
+      <c r="E20" s="25">
         <v>6</v>
       </c>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="26">
+      <c r="A21" s="15">
         <v>13</v>
       </c>
-      <c r="B21" s="23" t="s">
+      <c r="B21" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="31"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -1343,7 +1332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
@@ -1391,13 +1380,13 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1418,7 +1407,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.33203125" defaultRowHeight="16.2"/>
@@ -1432,36 +1421,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="32" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="26">
+        <v>1</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C2" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="E2" s="26">
         <v>8</v>
       </c>
-      <c r="F2" s="32"/>
+      <c r="F2" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L6-共同作業/AcLoanRenew.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F44D980D-09DA-4395-957F-F68AD7D02809}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FC24CE7-9ED7-4E10-9510-39879740DAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -289,6 +285,9 @@
     <t>1.展期件
 2.借新還舊件</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -577,6 +576,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="11" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -591,9 +593,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -616,9 +615,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -656,9 +655,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -691,26 +690,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -743,26 +725,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -939,7 +904,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -954,10 +919,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="4" t="s">
         <v>31</v>
       </c>
@@ -969,8 +934,8 @@
       <c r="G1" s="7"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="9" t="s">
         <v>1</v>
       </c>
@@ -982,10 +947,10 @@
       <c r="G2" s="11"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="31"/>
+      <c r="B3" s="32"/>
       <c r="C3" s="12" t="s">
         <v>42</v>
       </c>
@@ -997,10 +962,10 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="12"/>
       <c r="D4" s="13"/>
       <c r="E4" s="6"/>
@@ -1008,10 +973,10 @@
       <c r="G4" s="11"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="32"/>
       <c r="C5" s="12" t="s">
         <v>49</v>
       </c>
@@ -1021,10 +986,10 @@
       <c r="G5" s="11"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="30"/>
       <c r="C6" s="12"/>
       <c r="D6" s="13"/>
       <c r="E6" s="6"/>
@@ -1032,10 +997,10 @@
       <c r="G6" s="11"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="30"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="4"/>
       <c r="D7" s="13"/>
       <c r="E7" s="6"/>
@@ -1168,7 +1133,7 @@
         <v>41</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>12</v>
@@ -1177,8 +1142,8 @@
         <v>1</v>
       </c>
       <c r="F14" s="17"/>
-      <c r="G14" s="33" t="s">
-        <v>68</v>
+      <c r="G14" s="28" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="32.4">
@@ -1199,7 +1164,7 @@
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="18" customHeight="1">
@@ -1207,13 +1172,13 @@
         <v>8</v>
       </c>
       <c r="B16" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="C16" s="17" t="s">
-        <v>53</v>
-      </c>
       <c r="D16" s="23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E16" s="24">
         <v>8</v>
@@ -1226,10 +1191,10 @@
         <v>9</v>
       </c>
       <c r="B17" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>60</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>61</v>
       </c>
       <c r="D17" s="17" t="s">
         <v>50</v>
@@ -1270,7 +1235,7 @@
         <v>18</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E19" s="25"/>
       <c r="F19" s="21"/>
@@ -1306,7 +1271,7 @@
         <v>16</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="E21" s="25"/>
       <c r="F21" s="21"/>
@@ -1372,21 +1337,21 @@
         <v>48</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1421,31 +1386,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="32" t="s">
-        <v>58</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
+      <c r="A1" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="26">
         <v>1</v>
       </c>
       <c r="B2" s="27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D2" s="26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E2" s="26">
         <v>8</v>
